--- a/DOC/开发计划/DMS报表开发计划-10.15.xlsx
+++ b/DOC/开发计划/DMS报表开发计划-10.15.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报表" sheetId="8" r:id="rId1"/>
-    <sheet name="报表 (2)" sheetId="13" r:id="rId2"/>
+    <sheet name="洗美" sheetId="14" r:id="rId2"/>
+    <sheet name="报表 (2)" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
   <si>
     <t>功能模块</t>
   </si>
@@ -197,6 +198,54 @@
   </si>
   <si>
     <t>采购报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据车牌号获取客户信息完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客户统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗美转维修统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修转洗美统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用概况功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收分析功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户结构分析功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划发布时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务在ERP结算</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +288,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +307,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +407,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,6 +427,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,8 +738,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -695,7 +776,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2"/>
@@ -708,7 +789,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="7"/>
       <c r="D3" s="9" t="s">
@@ -719,7 +800,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
@@ -730,7 +811,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9" t="s">
@@ -741,7 +822,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
@@ -752,7 +833,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -765,7 +846,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -778,7 +859,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -791,7 +872,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -804,7 +885,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -817,7 +898,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -866,7 +947,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="3" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -915,7 +996,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -964,7 +1045,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1094,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1143,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1192,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1241,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1209,7 +1290,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1258,7 +1339,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1388,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1356,7 +1437,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1405,7 +1486,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1535,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1503,7 +1584,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1633,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1601,7 +1682,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1731,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1699,7 +1780,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1748,7 +1829,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1797,7 +1878,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1810,7 +1891,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1823,7 +1904,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1836,7 +1917,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1930,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
@@ -1862,7 +1943,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1875,7 +1956,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
@@ -1888,7 +1969,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
@@ -1901,7 +1982,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1914,7 +1995,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1941,6 +2022,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="8">
+        <v>43389</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43390</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="8">
+        <v>43391</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43391</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43390</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43392</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="8">
+        <v>43392</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="8">
+        <v>43392</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD41"/>
   <sheetViews>
@@ -1982,7 +2271,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1997,7 +2286,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2010,7 +2299,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2312,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2325,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2049,7 +2338,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2064,7 +2353,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2077,7 +2366,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2379,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2103,7 +2392,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2116,7 +2405,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2128,7 +2417,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="12"/>
       <c r="XDU12"/>
       <c r="XDV12"/>
       <c r="XDW12"/>
@@ -2167,7 +2456,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="3" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2177,7 +2466,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="12"/>
       <c r="XDU13"/>
       <c r="XDV13"/>
       <c r="XDW13"/>
@@ -2216,7 +2505,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2228,7 +2517,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="12"/>
       <c r="XDU14"/>
       <c r="XDV14"/>
       <c r="XDW14"/>
@@ -2267,7 +2556,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2277,7 +2566,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="12"/>
       <c r="XDU15"/>
       <c r="XDV15"/>
       <c r="XDW15"/>
@@ -2316,7 +2605,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2615,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="12"/>
       <c r="XDU16"/>
       <c r="XDV16"/>
       <c r="XDW16"/>
@@ -2365,7 +2654,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2375,7 +2664,7 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="12"/>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -2414,7 +2703,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +2713,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="12"/>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -2463,7 +2752,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2473,7 +2762,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="12"/>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -2512,7 +2801,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
@@ -2522,7 +2811,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="12"/>
       <c r="XDU20"/>
       <c r="XDV20"/>
       <c r="XDW20"/>
@@ -2561,7 +2850,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -2571,7 +2860,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="12"/>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -2610,7 +2899,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2622,7 +2911,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="12"/>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -2661,7 +2950,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2671,7 +2960,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="12"/>
       <c r="XDU23"/>
       <c r="XDV23"/>
       <c r="XDW23"/>
@@ -2710,7 +2999,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
@@ -2720,7 +3009,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="12"/>
       <c r="XDU24"/>
       <c r="XDV24"/>
       <c r="XDW24"/>
@@ -2759,7 +3048,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2769,7 +3058,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="12"/>
       <c r="XDU25"/>
       <c r="XDV25"/>
       <c r="XDW25"/>
@@ -2808,7 +3097,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -2818,7 +3107,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="12"/>
       <c r="XDU26"/>
       <c r="XDV26"/>
       <c r="XDW26"/>
@@ -2857,7 +3146,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -2867,7 +3156,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="12"/>
       <c r="XDU27"/>
       <c r="XDV27"/>
       <c r="XDW27"/>
@@ -2906,7 +3195,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2916,7 +3205,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="12"/>
       <c r="XDU28"/>
       <c r="XDV28"/>
       <c r="XDW28"/>
@@ -2955,7 +3244,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2967,7 +3256,7 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="12"/>
       <c r="XDU29"/>
       <c r="XDV29"/>
       <c r="XDW29"/>
@@ -3006,7 +3295,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
@@ -3016,7 +3305,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="12"/>
       <c r="XDU30"/>
       <c r="XDV30"/>
       <c r="XDW30"/>
@@ -3055,7 +3344,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
@@ -3065,7 +3354,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="12"/>
       <c r="XDU31"/>
       <c r="XDV31"/>
       <c r="XDW31"/>
@@ -3104,7 +3393,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -3114,10 +3403,10 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -3127,10 +3416,10 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
@@ -3140,10 +3429,10 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
@@ -3153,10 +3442,10 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
@@ -3166,10 +3455,10 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -3179,10 +3468,10 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
@@ -3192,10 +3481,10 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
@@ -3205,10 +3494,10 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
@@ -3218,10 +3507,10 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
@@ -3231,7 +3520,7 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/DOC/开发计划/DMS报表开发计划-10.15.xlsx
+++ b/DOC/开发计划/DMS报表开发计划-10.15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="报表" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>功能模块</t>
   </si>
@@ -246,6 +246,58 @@
   </si>
   <si>
     <t>财务在ERP结算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购排行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌采购分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件采购分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件类型采购分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商采购分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移仓单明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点单明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全库存</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -416,23 +468,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,10 +788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:XFD41"/>
+  <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -776,283 +828,155 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="8"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="8"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="8"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="8"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="8"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="15"/>
+      <c r="B8" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="8"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
+      <c r="A10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="8"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
+      <c r="A11" s="15"/>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="XDU12"/>
-      <c r="XDV12"/>
-      <c r="XDW12"/>
-      <c r="XDX12"/>
-      <c r="XDY12"/>
-      <c r="XDZ12"/>
-      <c r="XEA12"/>
-      <c r="XEB12"/>
-      <c r="XEC12"/>
-      <c r="XED12"/>
-      <c r="XEE12"/>
-      <c r="XEF12"/>
-      <c r="XEG12"/>
-      <c r="XEH12"/>
-      <c r="XEI12"/>
-      <c r="XEJ12"/>
-      <c r="XEK12"/>
-      <c r="XEL12"/>
-      <c r="XEM12"/>
-      <c r="XEN12"/>
-      <c r="XEO12"/>
-      <c r="XEP12"/>
-      <c r="XEQ12"/>
-      <c r="XER12"/>
-      <c r="XES12"/>
-      <c r="XET12"/>
-      <c r="XEU12"/>
-      <c r="XEV12"/>
-      <c r="XEW12"/>
-      <c r="XEX12"/>
-      <c r="XEY12"/>
-      <c r="XEZ12"/>
-      <c r="XFA12"/>
-      <c r="XFB12"/>
-      <c r="XFC12"/>
-      <c r="XFD12"/>
-    </row>
-    <row r="13" spans="1:7 16349:16384" s="3" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="XDU13"/>
-      <c r="XDV13"/>
-      <c r="XDW13"/>
-      <c r="XDX13"/>
-      <c r="XDY13"/>
-      <c r="XDZ13"/>
-      <c r="XEA13"/>
-      <c r="XEB13"/>
-      <c r="XEC13"/>
-      <c r="XED13"/>
-      <c r="XEE13"/>
-      <c r="XEF13"/>
-      <c r="XEG13"/>
-      <c r="XEH13"/>
-      <c r="XEI13"/>
-      <c r="XEJ13"/>
-      <c r="XEK13"/>
-      <c r="XEL13"/>
-      <c r="XEM13"/>
-      <c r="XEN13"/>
-      <c r="XEO13"/>
-      <c r="XEP13"/>
-      <c r="XEQ13"/>
-      <c r="XER13"/>
-      <c r="XES13"/>
-      <c r="XET13"/>
-      <c r="XEU13"/>
-      <c r="XEV13"/>
-      <c r="XEW13"/>
-      <c r="XEX13"/>
-      <c r="XEY13"/>
-      <c r="XEZ13"/>
-      <c r="XFA13"/>
-      <c r="XFB13"/>
-      <c r="XFC13"/>
-      <c r="XFD13"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="XDU14"/>
-      <c r="XDV14"/>
-      <c r="XDW14"/>
-      <c r="XDX14"/>
-      <c r="XDY14"/>
-      <c r="XDZ14"/>
-      <c r="XEA14"/>
-      <c r="XEB14"/>
-      <c r="XEC14"/>
-      <c r="XED14"/>
-      <c r="XEE14"/>
-      <c r="XEF14"/>
-      <c r="XEG14"/>
-      <c r="XEH14"/>
-      <c r="XEI14"/>
-      <c r="XEJ14"/>
-      <c r="XEK14"/>
-      <c r="XEL14"/>
-      <c r="XEM14"/>
-      <c r="XEN14"/>
-      <c r="XEO14"/>
-      <c r="XEP14"/>
-      <c r="XEQ14"/>
-      <c r="XER14"/>
-      <c r="XES14"/>
-      <c r="XET14"/>
-      <c r="XEU14"/>
-      <c r="XEV14"/>
-      <c r="XEW14"/>
-      <c r="XEX14"/>
-      <c r="XEY14"/>
-      <c r="XEZ14"/>
-      <c r="XFA14"/>
-      <c r="XFB14"/>
-      <c r="XFC14"/>
-      <c r="XFD14"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="8"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -1093,15 +1017,11 @@
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
-    <row r="16" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:7 16349:16384" s="3" customFormat="1" ht="42.95" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="8"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -1143,14 +1063,10 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="8"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -1192,14 +1108,10 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="8"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -1241,14 +1153,10 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="18"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -1290,14 +1198,10 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="8"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -1339,14 +1243,10 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="18"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -1388,14 +1288,10 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="18"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="8"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -1437,14 +1333,10 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A23" s="18"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="8"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -1486,14 +1378,10 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="8"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -1535,14 +1423,10 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="8"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -1584,14 +1468,10 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="15"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -1633,14 +1513,10 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="8"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -1682,14 +1558,10 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A28" s="15"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="8"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1731,14 +1603,10 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A29" s="15"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="8"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1780,14 +1648,10 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A30" s="15"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="8"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1829,14 +1693,10 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A31" s="15"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="8"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1877,144 +1737,239 @@
       <c r="XFC31"/>
       <c r="XFD31"/>
     </row>
-    <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="32" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="8"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="XDU32"/>
+      <c r="XDV32"/>
+      <c r="XDW32"/>
+      <c r="XDX32"/>
+      <c r="XDY32"/>
+      <c r="XDZ32"/>
+      <c r="XEA32"/>
+      <c r="XEB32"/>
+      <c r="XEC32"/>
+      <c r="XED32"/>
+      <c r="XEE32"/>
+      <c r="XEF32"/>
+      <c r="XEG32"/>
+      <c r="XEH32"/>
+      <c r="XEI32"/>
+      <c r="XEJ32"/>
+      <c r="XEK32"/>
+      <c r="XEL32"/>
+      <c r="XEM32"/>
+      <c r="XEN32"/>
+      <c r="XEO32"/>
+      <c r="XEP32"/>
+      <c r="XEQ32"/>
+      <c r="XER32"/>
+      <c r="XES32"/>
+      <c r="XET32"/>
+      <c r="XEU32"/>
+      <c r="XEV32"/>
+      <c r="XEW32"/>
+      <c r="XEX32"/>
+      <c r="XEY32"/>
+      <c r="XEZ32"/>
+      <c r="XFA32"/>
+      <c r="XFB32"/>
+      <c r="XFC32"/>
+      <c r="XFD32"/>
+    </row>
+    <row r="33" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="8"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="XDU33"/>
+      <c r="XDV33"/>
+      <c r="XDW33"/>
+      <c r="XDX33"/>
+      <c r="XDY33"/>
+      <c r="XDZ33"/>
+      <c r="XEA33"/>
+      <c r="XEB33"/>
+      <c r="XEC33"/>
+      <c r="XED33"/>
+      <c r="XEE33"/>
+      <c r="XEF33"/>
+      <c r="XEG33"/>
+      <c r="XEH33"/>
+      <c r="XEI33"/>
+      <c r="XEJ33"/>
+      <c r="XEK33"/>
+      <c r="XEL33"/>
+      <c r="XEM33"/>
+      <c r="XEN33"/>
+      <c r="XEO33"/>
+      <c r="XEP33"/>
+      <c r="XEQ33"/>
+      <c r="XER33"/>
+      <c r="XES33"/>
+      <c r="XET33"/>
+      <c r="XEU33"/>
+      <c r="XEV33"/>
+      <c r="XEW33"/>
+      <c r="XEX33"/>
+      <c r="XEY33"/>
+      <c r="XEZ33"/>
+      <c r="XFA33"/>
+      <c r="XFB33"/>
+      <c r="XFC33"/>
+      <c r="XFD33"/>
+    </row>
+    <row r="34" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="8"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="XDU34"/>
+      <c r="XDV34"/>
+      <c r="XDW34"/>
+      <c r="XDX34"/>
+      <c r="XDY34"/>
+      <c r="XDZ34"/>
+      <c r="XEA34"/>
+      <c r="XEB34"/>
+      <c r="XEC34"/>
+      <c r="XED34"/>
+      <c r="XEE34"/>
+      <c r="XEF34"/>
+      <c r="XEG34"/>
+      <c r="XEH34"/>
+      <c r="XEI34"/>
+      <c r="XEJ34"/>
+      <c r="XEK34"/>
+      <c r="XEL34"/>
+      <c r="XEM34"/>
+      <c r="XEN34"/>
+      <c r="XEO34"/>
+      <c r="XEP34"/>
+      <c r="XEQ34"/>
+      <c r="XER34"/>
+      <c r="XES34"/>
+      <c r="XET34"/>
+      <c r="XEU34"/>
+      <c r="XEV34"/>
+      <c r="XEW34"/>
+      <c r="XEX34"/>
+      <c r="XEY34"/>
+      <c r="XEZ34"/>
+      <c r="XFA34"/>
+      <c r="XFB34"/>
+      <c r="XFC34"/>
+      <c r="XFD34"/>
+    </row>
+    <row r="35" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="8"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="36" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="8"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="37" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="2" t="s">
-        <v>49</v>
-      </c>
+    <row r="38" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="8"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="39" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="8"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="40" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="8"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="41" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="8"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
     </row>
+    <row r="42" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7 16349:16384" ht="23.25" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2025,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2067,7 +2022,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2087,7 +2042,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
@@ -2105,7 +2060,7 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2078,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
@@ -2141,7 +2096,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
@@ -2159,7 +2114,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
         <v>65</v>
       </c>
@@ -2177,7 +2132,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>66</v>
       </c>
@@ -2195,7 +2150,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="11" t="s">
         <v>70</v>
       </c>
@@ -2213,12 +2168,12 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="17"/>
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2271,7 +2226,7 @@
       </c>
     </row>
     <row r="2" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2286,7 +2241,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2254,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2267,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2325,7 +2280,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2338,7 +2293,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2353,7 +2308,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +2321,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2379,7 +2334,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2347,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2405,7 +2360,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2456,7 +2411,7 @@
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:7 16349:16384" s="3" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2460,7 @@
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2556,7 +2511,7 @@
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2605,7 +2560,7 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2654,7 +2609,7 @@
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2703,7 +2658,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2752,7 +2707,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2801,7 +2756,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
@@ -2850,7 +2805,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -2899,7 +2854,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2950,7 +2905,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2999,7 +2954,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
@@ -3048,7 +3003,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3052,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -3146,7 +3101,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3195,7 +3150,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3199,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3295,7 +3250,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
@@ -3344,7 +3299,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
@@ -3393,7 +3348,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" ht="23.25" customHeight="1">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -3406,7 +3361,7 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -3419,7 +3374,7 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
@@ -3432,7 +3387,7 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
@@ -3445,7 +3400,7 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
@@ -3458,7 +3413,7 @@
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -3471,7 +3426,7 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
@@ -3484,7 +3439,7 @@
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
@@ -3497,7 +3452,7 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
@@ -3510,7 +3465,7 @@
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
@@ -3524,14 +3479,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A29:A41"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>